--- a/data/pca/factorExposure/factorExposure_2017-06-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02340691955639934</v>
+        <v>-0.009234332408828747</v>
       </c>
       <c r="C2">
-        <v>-0.005484302661840511</v>
+        <v>0.04481527797285208</v>
       </c>
       <c r="D2">
-        <v>-0.0332145253123354</v>
+        <v>0.02995765011153283</v>
       </c>
       <c r="E2">
-        <v>0.004811282145742028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03345476465732983</v>
+      </c>
+      <c r="F2">
+        <v>0.008818192053669158</v>
+      </c>
+      <c r="G2">
+        <v>0.09217763248175329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01833714323188444</v>
+        <v>-0.04481831779973686</v>
       </c>
       <c r="C3">
-        <v>0.04707691918571661</v>
+        <v>0.09520050030353329</v>
       </c>
       <c r="D3">
-        <v>-0.08958103848725971</v>
+        <v>0.01668290653246887</v>
       </c>
       <c r="E3">
-        <v>0.01275459055640687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1007607033559745</v>
+      </c>
+      <c r="F3">
+        <v>0.001622285563171255</v>
+      </c>
+      <c r="G3">
+        <v>0.1792917299647968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02507953266885257</v>
+        <v>-0.05572743195502988</v>
       </c>
       <c r="C4">
-        <v>0.01223732826480984</v>
+        <v>0.06811170903737086</v>
       </c>
       <c r="D4">
-        <v>-0.08687607163961461</v>
+        <v>0.0245261165955075</v>
       </c>
       <c r="E4">
-        <v>-0.01946984026105649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0264067792353491</v>
+      </c>
+      <c r="F4">
+        <v>0.01101378990363916</v>
+      </c>
+      <c r="G4">
+        <v>0.09293767534546837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01471288442269879</v>
+        <v>-0.03762595051443532</v>
       </c>
       <c r="C6">
-        <v>-0.001851969935647952</v>
+        <v>0.05328296480405033</v>
       </c>
       <c r="D6">
-        <v>-0.08455624353030665</v>
+        <v>0.01667481087200265</v>
       </c>
       <c r="E6">
-        <v>-0.009100381002371113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02714019462773209</v>
+      </c>
+      <c r="F6">
+        <v>0.008526499698578632</v>
+      </c>
+      <c r="G6">
+        <v>0.06738250542004819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01163172681664179</v>
+        <v>-0.01998737109617554</v>
       </c>
       <c r="C7">
-        <v>0.005737946205141398</v>
+        <v>0.04140790476422385</v>
       </c>
       <c r="D7">
-        <v>-0.04494907813715939</v>
+        <v>0.01332684138798217</v>
       </c>
       <c r="E7">
-        <v>-0.06241374153297307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004273823066491046</v>
+      </c>
+      <c r="F7">
+        <v>-0.004624495251476853</v>
+      </c>
+      <c r="G7">
+        <v>0.1258278697481467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0007244308931677045</v>
+        <v>-0.002851137142936378</v>
       </c>
       <c r="C8">
-        <v>-0.0006491510367917783</v>
+        <v>0.02488332417799874</v>
       </c>
       <c r="D8">
-        <v>-0.00733075470867257</v>
+        <v>0.004073925400033109</v>
       </c>
       <c r="E8">
-        <v>-0.009227193823306985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02305943063413757</v>
+      </c>
+      <c r="F8">
+        <v>0.005614042396566726</v>
+      </c>
+      <c r="G8">
+        <v>0.06487465535851841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01717492726842818</v>
+        <v>-0.03299451789548004</v>
       </c>
       <c r="C9">
-        <v>0.01290245178228132</v>
+        <v>0.04961333544440659</v>
       </c>
       <c r="D9">
-        <v>-0.06356682789524729</v>
+        <v>0.01689406956919387</v>
       </c>
       <c r="E9">
-        <v>-0.006969138770863173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01800199719246208</v>
+      </c>
+      <c r="F9">
+        <v>0.01009109684775077</v>
+      </c>
+      <c r="G9">
+        <v>0.09113641015045239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02723586904456571</v>
+        <v>-0.09858977187017456</v>
       </c>
       <c r="C10">
-        <v>0.1732810996447588</v>
+        <v>-0.1810791635157939</v>
       </c>
       <c r="D10">
-        <v>0.09951953894287358</v>
+        <v>-0.01454880579138088</v>
       </c>
       <c r="E10">
-        <v>0.01345271380258665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02028814481319505</v>
+      </c>
+      <c r="F10">
+        <v>-0.02123964164443654</v>
+      </c>
+      <c r="G10">
+        <v>0.06088143731434325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.001043571698663487</v>
+        <v>-0.03446734141822939</v>
       </c>
       <c r="C11">
-        <v>0.001976931498490691</v>
+        <v>0.05511353528981606</v>
       </c>
       <c r="D11">
-        <v>-0.0573712979852637</v>
+        <v>0.002441946911726077</v>
       </c>
       <c r="E11">
-        <v>0.0007021053849409565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009671835151174056</v>
+      </c>
+      <c r="F11">
+        <v>0.02117244914335764</v>
+      </c>
+      <c r="G11">
+        <v>0.07686107617640825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005861154134955167</v>
+        <v>-0.0359880082051393</v>
       </c>
       <c r="C12">
-        <v>0.003653954489022121</v>
+        <v>0.04927365578174685</v>
       </c>
       <c r="D12">
-        <v>-0.0522071565902206</v>
+        <v>0.006230335190383448</v>
       </c>
       <c r="E12">
-        <v>-0.0103939979318047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001538936795781927</v>
+      </c>
+      <c r="F12">
+        <v>0.0009773818212123146</v>
+      </c>
+      <c r="G12">
+        <v>0.07220295672795159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02457449008015678</v>
+        <v>-0.01558548451529508</v>
       </c>
       <c r="C13">
-        <v>0.01545855127182699</v>
+        <v>0.0404255683495536</v>
       </c>
       <c r="D13">
-        <v>-0.03627573365231214</v>
+        <v>0.02637581278770207</v>
       </c>
       <c r="E13">
-        <v>0.005782644362870983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03085313527152505</v>
+      </c>
+      <c r="F13">
+        <v>0.006291335922798888</v>
+      </c>
+      <c r="G13">
+        <v>0.1130014851923297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009144606284050661</v>
+        <v>-0.008422091863378148</v>
       </c>
       <c r="C14">
-        <v>0.01263727702785189</v>
+        <v>0.02880596721035199</v>
       </c>
       <c r="D14">
-        <v>-0.0181257600714561</v>
+        <v>0.009839105508144215</v>
       </c>
       <c r="E14">
-        <v>-0.008430580565651139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002444432499363261</v>
+      </c>
+      <c r="F14">
+        <v>-0.008632254424956486</v>
+      </c>
+      <c r="G14">
+        <v>0.09621714239906565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001949371104522836</v>
+        <v>-0.03324119567044504</v>
       </c>
       <c r="C16">
-        <v>0.008098906220245823</v>
+        <v>0.04881492434683869</v>
       </c>
       <c r="D16">
-        <v>-0.05374324204204476</v>
+        <v>0.001954407949748287</v>
       </c>
       <c r="E16">
-        <v>-0.009738177007771524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0082662191485002</v>
+      </c>
+      <c r="F16">
+        <v>0.002107071391572978</v>
+      </c>
+      <c r="G16">
+        <v>0.08004572474388312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01525822506207663</v>
+        <v>-0.0206792694639117</v>
       </c>
       <c r="C19">
-        <v>0.0161106251349628</v>
+        <v>0.05290716562493407</v>
       </c>
       <c r="D19">
-        <v>-0.04014034632063095</v>
+        <v>0.0189363726646573</v>
       </c>
       <c r="E19">
-        <v>-0.006270212109072037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06787330609432296</v>
+      </c>
+      <c r="F19">
+        <v>0.0210568665003545</v>
+      </c>
+      <c r="G19">
+        <v>0.1278151110698985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01144978180421668</v>
+        <v>-0.0142427659662914</v>
       </c>
       <c r="C20">
-        <v>0.004693944596910894</v>
+        <v>0.03944210452851028</v>
       </c>
       <c r="D20">
-        <v>-0.03309765238510007</v>
+        <v>0.0142345554103099</v>
       </c>
       <c r="E20">
-        <v>0.008210445432964335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02864415928758162</v>
+      </c>
+      <c r="F20">
+        <v>-0.01169360485901545</v>
+      </c>
+      <c r="G20">
+        <v>0.1021029167085132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01621653362068888</v>
+        <v>-0.01314624284682819</v>
       </c>
       <c r="C21">
-        <v>0.01711541394570956</v>
+        <v>0.04033672603426301</v>
       </c>
       <c r="D21">
-        <v>-0.03849938641998975</v>
+        <v>0.01854980994339756</v>
       </c>
       <c r="E21">
-        <v>-0.01185157407216751</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0422391237471125</v>
+      </c>
+      <c r="F21">
+        <v>-0.0006833187648071897</v>
+      </c>
+      <c r="G21">
+        <v>0.1287850176217727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.000716679141755089</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001640893653351717</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.000257567076122401</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0008703610589742542</v>
+      </c>
+      <c r="F22">
+        <v>-0.0001211612368067084</v>
+      </c>
+      <c r="G22">
+        <v>0.001966079665904073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0007210084185397582</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001637280568150855</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002576938216332211</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0008758606319632925</v>
+      </c>
+      <c r="F23">
+        <v>-0.0001229322780104945</v>
+      </c>
+      <c r="G23">
+        <v>0.00197531904838652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.00452143701960909</v>
+        <v>-0.02803545283596573</v>
       </c>
       <c r="C24">
-        <v>-0.003819053733345604</v>
+        <v>0.05159259004524208</v>
       </c>
       <c r="D24">
-        <v>-0.05214576740370493</v>
+        <v>0.007236459449356459</v>
       </c>
       <c r="E24">
-        <v>-0.008036043324993646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005458512759950545</v>
+      </c>
+      <c r="F24">
+        <v>0.01375425054726126</v>
+      </c>
+      <c r="G24">
+        <v>0.07966691411531461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01281417803820601</v>
+        <v>-0.04276731715751392</v>
       </c>
       <c r="C25">
-        <v>0.01292498030578765</v>
+        <v>0.05930550780786249</v>
       </c>
       <c r="D25">
-        <v>-0.0578366082393285</v>
+        <v>0.01116459938558263</v>
       </c>
       <c r="E25">
-        <v>-0.007021981791157173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001657418503967287</v>
+      </c>
+      <c r="F25">
+        <v>0.007643344364352576</v>
+      </c>
+      <c r="G25">
+        <v>0.08681798723026761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02339388691569352</v>
+        <v>-0.01378706692089003</v>
       </c>
       <c r="C26">
-        <v>0.006702257687910879</v>
+        <v>0.0116577406994329</v>
       </c>
       <c r="D26">
-        <v>-0.002468099694485737</v>
+        <v>0.02384046979558529</v>
       </c>
       <c r="E26">
-        <v>-0.01053722570564825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.005293383827720877</v>
+      </c>
+      <c r="F26">
+        <v>-0.009632163551035095</v>
+      </c>
+      <c r="G26">
+        <v>0.07523906191826878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05203177717912121</v>
+        <v>-0.1263805027588984</v>
       </c>
       <c r="C28">
-        <v>0.2421515722972006</v>
+        <v>-0.2361542093914214</v>
       </c>
       <c r="D28">
-        <v>0.1319470408097717</v>
+        <v>-0.005410216810478007</v>
       </c>
       <c r="E28">
-        <v>-0.005625208116895049</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.007524797973606541</v>
+      </c>
+      <c r="F28">
+        <v>-0.01509683311483825</v>
+      </c>
+      <c r="G28">
+        <v>0.06165704709591696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009556093517863263</v>
+        <v>-0.009510300659384477</v>
       </c>
       <c r="C29">
-        <v>0.01642825951962554</v>
+        <v>0.02263516174935648</v>
       </c>
       <c r="D29">
-        <v>-0.0168476809006871</v>
+        <v>0.008807062958225781</v>
       </c>
       <c r="E29">
-        <v>-0.005100955782238349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001138386383082175</v>
+      </c>
+      <c r="F29">
+        <v>-0.01781283426400787</v>
+      </c>
+      <c r="G29">
+        <v>0.08789016903668269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02431600663205575</v>
+        <v>-0.0413072997491643</v>
       </c>
       <c r="C30">
-        <v>-0.004310246810346392</v>
+        <v>0.06961691752519314</v>
       </c>
       <c r="D30">
-        <v>-0.09851327726448431</v>
+        <v>0.02903309424744462</v>
       </c>
       <c r="E30">
-        <v>0.03535425549276258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05236423789271435</v>
+      </c>
+      <c r="F30">
+        <v>0.04452238472483747</v>
+      </c>
+      <c r="G30">
+        <v>0.1027186012671548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01142057618690006</v>
+        <v>-0.0528849664835772</v>
       </c>
       <c r="C31">
-        <v>0.03872446962901405</v>
+        <v>0.03759510901269256</v>
       </c>
       <c r="D31">
-        <v>-0.03894690650463591</v>
+        <v>0.003681423596058934</v>
       </c>
       <c r="E31">
-        <v>-0.008836196764670255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.002792925188296166</v>
+      </c>
+      <c r="F31">
+        <v>-0.03961964050611827</v>
+      </c>
+      <c r="G31">
+        <v>0.08303000683419622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004649620776639367</v>
+        <v>-0.00172227564360567</v>
       </c>
       <c r="C32">
-        <v>0.01900830768467844</v>
+        <v>0.02582733536812624</v>
       </c>
       <c r="D32">
-        <v>-0.00699331532871978</v>
+        <v>-0.003470227367009267</v>
       </c>
       <c r="E32">
-        <v>-0.05380404303533186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01934782462561937</v>
+      </c>
+      <c r="F32">
+        <v>0.03624720627065878</v>
+      </c>
+      <c r="G32">
+        <v>0.09747951505555233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01532706592073904</v>
+        <v>-0.02776479247769884</v>
       </c>
       <c r="C33">
-        <v>0.02304342406918939</v>
+        <v>0.05053855203219709</v>
       </c>
       <c r="D33">
-        <v>-0.04408183777634402</v>
+        <v>0.01572713106621452</v>
       </c>
       <c r="E33">
-        <v>0.0263758062152766</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03555638161665858</v>
+      </c>
+      <c r="F33">
+        <v>0.01571845920407404</v>
+      </c>
+      <c r="G33">
+        <v>0.131014639929422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0033220596760606</v>
+        <v>-0.04037693031010885</v>
       </c>
       <c r="C34">
-        <v>0.01441843247739528</v>
+        <v>0.06178366797340332</v>
       </c>
       <c r="D34">
-        <v>-0.05642402292482855</v>
+        <v>-0.004641886587614072</v>
       </c>
       <c r="E34">
-        <v>-0.01492962181601007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0005792800914138772</v>
+      </c>
+      <c r="F34">
+        <v>0.01991969273309883</v>
+      </c>
+      <c r="G34">
+        <v>0.08704647265204604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01386866306018863</v>
+        <v>-0.01596967514837033</v>
       </c>
       <c r="C36">
-        <v>0.01819306451589941</v>
+        <v>0.009598188831157112</v>
       </c>
       <c r="D36">
-        <v>-0.008351092446676539</v>
+        <v>0.01225107469080922</v>
       </c>
       <c r="E36">
-        <v>-0.005175056455324773</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004101477489767347</v>
+      </c>
+      <c r="F36">
+        <v>-0.006788001423177031</v>
+      </c>
+      <c r="G36">
+        <v>0.07796000544143707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.001399347915160978</v>
+        <v>-0.03229811728981885</v>
       </c>
       <c r="C38">
-        <v>0.03353898018163225</v>
+        <v>0.03184072912336846</v>
       </c>
       <c r="D38">
-        <v>-0.05262020337140989</v>
+        <v>-0.007599104476479783</v>
       </c>
       <c r="E38">
-        <v>-0.01142186613280158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002292249348281932</v>
+      </c>
+      <c r="F38">
+        <v>-0.01916923611121067</v>
+      </c>
+      <c r="G38">
+        <v>0.07838891632552113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004090277470068102</v>
+        <v>-0.03526549339690554</v>
       </c>
       <c r="C39">
-        <v>-0.02559773493071492</v>
+        <v>0.08128498571080296</v>
       </c>
       <c r="D39">
-        <v>-0.1029851909095341</v>
+        <v>0.01175299454775101</v>
       </c>
       <c r="E39">
-        <v>0.004265475902359125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02103027052748262</v>
+      </c>
+      <c r="F39">
+        <v>0.02558389828061289</v>
+      </c>
+      <c r="G39">
+        <v>0.07871929124506083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01273495998350503</v>
+        <v>-0.01544055144824671</v>
       </c>
       <c r="C40">
-        <v>0.01310457529448497</v>
+        <v>0.04334761090303044</v>
       </c>
       <c r="D40">
-        <v>-0.04289803753509704</v>
+        <v>0.01480434074329375</v>
       </c>
       <c r="E40">
-        <v>-0.01276605523496785</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0205483603999669</v>
+      </c>
+      <c r="F40">
+        <v>-0.01678835925432965</v>
+      </c>
+      <c r="G40">
+        <v>0.1154182024963857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.007068455259357918</v>
+        <v>-0.0195485794295367</v>
       </c>
       <c r="C41">
-        <v>0.02122215087546222</v>
+        <v>0.001527833339320844</v>
       </c>
       <c r="D41">
-        <v>0.01177328350211274</v>
+        <v>0.004351471372178553</v>
       </c>
       <c r="E41">
-        <v>-0.002012080513671505</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002427191235235796</v>
+      </c>
+      <c r="F41">
+        <v>-0.01329033164798096</v>
+      </c>
+      <c r="G41">
+        <v>0.06674027686360874</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08972150121115614</v>
+        <v>-0.008741556645173848</v>
       </c>
       <c r="C42">
-        <v>-0.04063925395599587</v>
+        <v>0.03681659138841223</v>
       </c>
       <c r="D42">
-        <v>-0.1728764401353881</v>
+        <v>0.0916599443139296</v>
       </c>
       <c r="E42">
-        <v>0.4188534133196004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01579248946727027</v>
+      </c>
+      <c r="F42">
+        <v>-0.03404112852209194</v>
+      </c>
+      <c r="G42">
+        <v>-0.1473900776619051</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008467742451502372</v>
+        <v>-0.03317398570882003</v>
       </c>
       <c r="C43">
-        <v>0.02556927586164593</v>
+        <v>0.01722760704073967</v>
       </c>
       <c r="D43">
-        <v>0.008916198028635148</v>
+        <v>0.006091858051030627</v>
       </c>
       <c r="E43">
-        <v>-1.804496638673182e-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01595778660010523</v>
+      </c>
+      <c r="F43">
+        <v>-0.003937169746077938</v>
+      </c>
+      <c r="G43">
+        <v>0.09718176879901147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003571846017068545</v>
+        <v>-0.01216516611938555</v>
       </c>
       <c r="C44">
-        <v>0.001950737039986312</v>
+        <v>0.05917933644325696</v>
       </c>
       <c r="D44">
-        <v>-0.05418536287462571</v>
+        <v>0.00672887400552601</v>
       </c>
       <c r="E44">
-        <v>-0.01015833282159216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.017686965944272</v>
+      </c>
+      <c r="F44">
+        <v>-0.009600852443907475</v>
+      </c>
+      <c r="G44">
+        <v>0.09399018829256146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0117449303685215</v>
+        <v>-0.00818093747340507</v>
       </c>
       <c r="C46">
-        <v>0.01202082197688027</v>
+        <v>0.01800901016050011</v>
       </c>
       <c r="D46">
-        <v>-0.007011295098422749</v>
+        <v>0.01250454556616992</v>
       </c>
       <c r="E46">
-        <v>-0.001068552025550694</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001104253932369027</v>
+      </c>
+      <c r="F46">
+        <v>-0.01791362109817403</v>
+      </c>
+      <c r="G46">
+        <v>0.09150481498489954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.005917588689410921</v>
+        <v>-0.07704455710058732</v>
       </c>
       <c r="C47">
-        <v>0.04563536693959734</v>
+        <v>0.06651364699997923</v>
       </c>
       <c r="D47">
-        <v>-0.07125323371046431</v>
+        <v>-0.005252377660089018</v>
       </c>
       <c r="E47">
-        <v>-0.007114496648582471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.00843067399366927</v>
+      </c>
+      <c r="F47">
+        <v>-0.0545989064810713</v>
+      </c>
+      <c r="G47">
+        <v>0.07389590110278424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005106098520547118</v>
+        <v>-0.02030750917582504</v>
       </c>
       <c r="C48">
-        <v>0.02363281833856104</v>
+        <v>0.01280198027243863</v>
       </c>
       <c r="D48">
-        <v>-0.0200001786482117</v>
+        <v>0.001647903892299343</v>
       </c>
       <c r="E48">
-        <v>-0.002090048520682978</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001167632256204862</v>
+      </c>
+      <c r="F48">
+        <v>-0.02099072785122157</v>
+      </c>
+      <c r="G48">
+        <v>0.08172436346929164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.008153906538983282</v>
+        <v>-0.07536372519370556</v>
       </c>
       <c r="C50">
-        <v>0.04970159290047515</v>
+        <v>0.06995630527574814</v>
       </c>
       <c r="D50">
-        <v>-0.06727214112094078</v>
+        <v>-0.002910404298150671</v>
       </c>
       <c r="E50">
-        <v>-0.03127110326515648</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.009768754972605858</v>
+      </c>
+      <c r="F50">
+        <v>-0.05658256364860321</v>
+      </c>
+      <c r="G50">
+        <v>0.08956225387779473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008101652704817056</v>
+        <v>-0.01406671250656073</v>
       </c>
       <c r="C51">
-        <v>0.01320072063772744</v>
+        <v>0.03595847138739175</v>
       </c>
       <c r="D51">
-        <v>-0.01650547399179535</v>
+        <v>0.01037298537241306</v>
       </c>
       <c r="E51">
-        <v>-0.007730900718066097</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01879983018642912</v>
+      </c>
+      <c r="F51">
+        <v>0.02256871276331041</v>
+      </c>
+      <c r="G51">
+        <v>0.1175507532019218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01013332140025766</v>
+        <v>-0.08172670805569723</v>
       </c>
       <c r="C53">
-        <v>0.05660957815081905</v>
+        <v>0.08473505980056895</v>
       </c>
       <c r="D53">
-        <v>-0.1273555112328453</v>
+        <v>-0.003958475802072236</v>
       </c>
       <c r="E53">
-        <v>-0.01534427194848437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02681337543163144</v>
+      </c>
+      <c r="F53">
+        <v>-0.06782747438376166</v>
+      </c>
+      <c r="G53">
+        <v>0.07308048693182433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.003043180909587919</v>
+        <v>-0.02976535856307331</v>
       </c>
       <c r="C54">
-        <v>0.03378173296477731</v>
+        <v>0.01650659593271219</v>
       </c>
       <c r="D54">
-        <v>-0.0009701015989027626</v>
+        <v>-0.001214946333084899</v>
       </c>
       <c r="E54">
-        <v>0.001608458736301553</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01288417069550538</v>
+      </c>
+      <c r="F54">
+        <v>-8.273885788355976e-05</v>
+      </c>
+      <c r="G54">
+        <v>0.09136317329025648</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.005126501086951251</v>
+        <v>-0.07111411869210904</v>
       </c>
       <c r="C55">
-        <v>0.03468871294503578</v>
+        <v>0.06867637278426736</v>
       </c>
       <c r="D55">
-        <v>-0.09982887992508993</v>
+        <v>-0.005299465068841414</v>
       </c>
       <c r="E55">
-        <v>0.001955232968151875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02351988269861124</v>
+      </c>
+      <c r="F55">
+        <v>-0.06210848133417277</v>
+      </c>
+      <c r="G55">
+        <v>0.04614070966839765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.009641311104644104</v>
+        <v>-0.137912149607923</v>
       </c>
       <c r="C56">
-        <v>0.0799520669658018</v>
+        <v>0.1082706681783133</v>
       </c>
       <c r="D56">
-        <v>-0.1554541521965058</v>
+        <v>-0.01294873629807736</v>
       </c>
       <c r="E56">
-        <v>-0.007449261439870599</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03347562179344144</v>
+      </c>
+      <c r="F56">
+        <v>-0.08094577060259804</v>
+      </c>
+      <c r="G56">
+        <v>0.02095911179193392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02427906506535669</v>
+        <v>-0.006895408741024997</v>
       </c>
       <c r="C57">
-        <v>0.005696086873985362</v>
+        <v>0.009384549074277045</v>
       </c>
       <c r="D57">
-        <v>-0.06613296339598097</v>
+        <v>0.02351478251153623</v>
       </c>
       <c r="E57">
-        <v>0.00841915554109357</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02499827599288889</v>
+      </c>
+      <c r="F57">
+        <v>0.009207781758516938</v>
+      </c>
+      <c r="G57">
+        <v>0.02771297464935635</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01489554699673154</v>
+        <v>-0.05526970239267868</v>
       </c>
       <c r="C58">
-        <v>0.05737770722221022</v>
+        <v>0.05474160148844758</v>
       </c>
       <c r="D58">
-        <v>-0.174307668142438</v>
+        <v>0.0254747021890568</v>
       </c>
       <c r="E58">
-        <v>0.5075157602849206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9322296860390969</v>
+      </c>
+      <c r="F58">
+        <v>-0.2410163809181609</v>
+      </c>
+      <c r="G58">
+        <v>-0.1401563484609569</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.05201707647134518</v>
+        <v>-0.1603099783501215</v>
       </c>
       <c r="C59">
-        <v>0.2667886500520085</v>
+        <v>-0.2033046763731355</v>
       </c>
       <c r="D59">
-        <v>0.1206679167913199</v>
+        <v>-0.01082741695330019</v>
       </c>
       <c r="E59">
-        <v>-0.006087070994135838</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01937138782242535</v>
+      </c>
+      <c r="F59">
+        <v>0.004718740954351442</v>
+      </c>
+      <c r="G59">
+        <v>0.04192743682199646</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04811490363333271</v>
+        <v>-0.2854771475985869</v>
       </c>
       <c r="C60">
-        <v>0.1548041076877548</v>
+        <v>0.1072848524390185</v>
       </c>
       <c r="D60">
-        <v>-0.1279223914537266</v>
+        <v>0.0129830621318751</v>
       </c>
       <c r="E60">
-        <v>-0.03220322041581247</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.0009846206067392826</v>
+      </c>
+      <c r="F60">
+        <v>0.3471837398381675</v>
+      </c>
+      <c r="G60">
+        <v>-0.1284067195612628</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003646889110635573</v>
+        <v>-0.03742431528059992</v>
       </c>
       <c r="C61">
-        <v>0.002855918048386715</v>
+        <v>0.06768345499898464</v>
       </c>
       <c r="D61">
-        <v>-0.07831738069226996</v>
+        <v>0.005240200257711314</v>
       </c>
       <c r="E61">
-        <v>-0.009376059624098286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01322885866624276</v>
+      </c>
+      <c r="F61">
+        <v>0.01391394532750235</v>
+      </c>
+      <c r="G61">
+        <v>0.0802132761443657</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008416494096334652</v>
+        <v>-0.01427574554169084</v>
       </c>
       <c r="C63">
-        <v>0.005370942096595321</v>
+        <v>0.02990195454522987</v>
       </c>
       <c r="D63">
-        <v>-0.023244713935346</v>
+        <v>0.008401669119242202</v>
       </c>
       <c r="E63">
-        <v>-0.01295967266603763</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0005436197499482277</v>
+      </c>
+      <c r="F63">
+        <v>-0.01708443079226267</v>
+      </c>
+      <c r="G63">
+        <v>0.08114354156010639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01017544734682865</v>
+        <v>-0.04726296792501809</v>
       </c>
       <c r="C64">
-        <v>0.02656831501744219</v>
+        <v>0.04716970153921551</v>
       </c>
       <c r="D64">
-        <v>-0.05990218656852028</v>
+        <v>0.006295649542079972</v>
       </c>
       <c r="E64">
-        <v>0.002718972732911774</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0003500824133573038</v>
+      </c>
+      <c r="F64">
+        <v>0.006505884471477997</v>
+      </c>
+      <c r="G64">
+        <v>0.07951642690250249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01772435289796715</v>
+        <v>-0.07583226528770352</v>
       </c>
       <c r="C65">
-        <v>0.0009566782855759965</v>
+        <v>0.06034531434220434</v>
       </c>
       <c r="D65">
-        <v>-0.1040165868489708</v>
+        <v>0.01630288957924544</v>
       </c>
       <c r="E65">
-        <v>-0.01619213308563611</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02838891330659496</v>
+      </c>
+      <c r="F65">
+        <v>0.02965585601037844</v>
+      </c>
+      <c r="G65">
+        <v>0.02690807244356451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004624580124487646</v>
+        <v>-0.05122365825215458</v>
       </c>
       <c r="C66">
-        <v>-0.02086480096932043</v>
+        <v>0.1108188598395606</v>
       </c>
       <c r="D66">
-        <v>-0.1387518890280259</v>
+        <v>0.01177512578944264</v>
       </c>
       <c r="E66">
-        <v>-0.001631055250532751</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03038378254415513</v>
+      </c>
+      <c r="F66">
+        <v>0.03511123661535696</v>
+      </c>
+      <c r="G66">
+        <v>0.09361903842907894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.00575287278640205</v>
+        <v>-0.05527191762082106</v>
       </c>
       <c r="C67">
-        <v>0.05324280661886953</v>
+        <v>0.03538748363257164</v>
       </c>
       <c r="D67">
-        <v>-0.06629604778967634</v>
+        <v>-0.00600539295004878</v>
       </c>
       <c r="E67">
-        <v>-0.01117638837893897</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004661932582454516</v>
+      </c>
+      <c r="F67">
+        <v>-0.01783732723747033</v>
+      </c>
+      <c r="G67">
+        <v>0.0693462803166268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.06588247523591259</v>
+        <v>-0.1534834708204295</v>
       </c>
       <c r="C68">
-        <v>0.2384212687560315</v>
+        <v>-0.2689459662539637</v>
       </c>
       <c r="D68">
-        <v>0.1614048524579528</v>
+        <v>0.00663469277519705</v>
       </c>
       <c r="E68">
-        <v>0.02435167975069701</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01273904836089853</v>
+      </c>
+      <c r="F68">
+        <v>-0.03092666220827948</v>
+      </c>
+      <c r="G68">
+        <v>0.02984175867682342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.001181874134392767</v>
+        <v>-0.08108246163545919</v>
       </c>
       <c r="C69">
-        <v>0.03859011222382817</v>
+        <v>0.06960914816010232</v>
       </c>
       <c r="D69">
-        <v>-0.07478502082471228</v>
+        <v>-0.009181851408827454</v>
       </c>
       <c r="E69">
-        <v>-0.01711439321268906</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02405999008918261</v>
+      </c>
+      <c r="F69">
+        <v>-0.03679436322276659</v>
+      </c>
+      <c r="G69">
+        <v>0.0813934447140322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05024935129180268</v>
+        <v>-0.1398130859531603</v>
       </c>
       <c r="C71">
-        <v>0.2104148001578324</v>
+        <v>-0.2278054763770334</v>
       </c>
       <c r="D71">
-        <v>0.1136491913102796</v>
+        <v>-0.002050431755403149</v>
       </c>
       <c r="E71">
-        <v>0.0157686323828244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03312536783271925</v>
+      </c>
+      <c r="F71">
+        <v>-0.01899274989473072</v>
+      </c>
+      <c r="G71">
+        <v>0.06320178590799772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0003851690709245061</v>
+        <v>-0.08484670271426464</v>
       </c>
       <c r="C72">
-        <v>0.03010654157591509</v>
+        <v>0.07425608720060446</v>
       </c>
       <c r="D72">
-        <v>-0.1143072785906455</v>
+        <v>-0.007934020412865108</v>
       </c>
       <c r="E72">
-        <v>-0.01744664177545381</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.002796340413505168</v>
+      </c>
+      <c r="F72">
+        <v>0.04024021873108296</v>
+      </c>
+      <c r="G72">
+        <v>0.07058925491298679</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.06128410448245481</v>
+        <v>-0.3733117879733592</v>
       </c>
       <c r="C73">
-        <v>0.1664222758396367</v>
+        <v>0.1182748333903046</v>
       </c>
       <c r="D73">
-        <v>-0.2339269545014922</v>
+        <v>0.0221937453424827</v>
       </c>
       <c r="E73">
-        <v>0.00686303002132588</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.0730633712511012</v>
+      </c>
+      <c r="F73">
+        <v>0.5780941475469594</v>
+      </c>
+      <c r="G73">
+        <v>-0.2551197047926146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.006424538606780064</v>
+        <v>-0.105253906927111</v>
       </c>
       <c r="C74">
-        <v>0.06412467388972762</v>
+        <v>0.1100844761507725</v>
       </c>
       <c r="D74">
-        <v>-0.1688477903050503</v>
+        <v>-0.009821974886469808</v>
       </c>
       <c r="E74">
-        <v>0.002704932916622989</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01028798810209231</v>
+      </c>
+      <c r="F74">
+        <v>-0.07123567168711512</v>
+      </c>
+      <c r="G74">
+        <v>0.06377866619610995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01745400298891586</v>
+        <v>-0.2496414416635218</v>
       </c>
       <c r="C75">
-        <v>0.1543657959838705</v>
+        <v>0.1504348645528906</v>
       </c>
       <c r="D75">
-        <v>-0.2834632654976301</v>
+        <v>-0.03133018296696181</v>
       </c>
       <c r="E75">
-        <v>0.01518197398911698</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05884147996899217</v>
+      </c>
+      <c r="F75">
+        <v>-0.1749107543343664</v>
+      </c>
+      <c r="G75">
+        <v>-0.05840164386940797</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.005782129467101313</v>
+        <v>-0.1222955345330326</v>
       </c>
       <c r="C76">
-        <v>0.1014817704348199</v>
+        <v>0.1118721404314924</v>
       </c>
       <c r="D76">
-        <v>-0.2176371149941775</v>
+        <v>-0.01986474747171424</v>
       </c>
       <c r="E76">
-        <v>-0.03294976103626002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03629916192433986</v>
+      </c>
+      <c r="F76">
+        <v>-0.117167803297006</v>
+      </c>
+      <c r="G76">
+        <v>0.04172166076884032</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0161185613993159</v>
+        <v>-0.06860497691937735</v>
       </c>
       <c r="C77">
-        <v>0.02574181578162992</v>
+        <v>0.06183469889227788</v>
       </c>
       <c r="D77">
-        <v>-0.07027680256441633</v>
+        <v>0.01157535444410496</v>
       </c>
       <c r="E77">
-        <v>-0.001636306634089396</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04260130493544009</v>
+      </c>
+      <c r="F77">
+        <v>0.008516818544712283</v>
+      </c>
+      <c r="G77">
+        <v>0.06385175834746019</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.006262285016259157</v>
+        <v>-0.04295813824318381</v>
       </c>
       <c r="C78">
-        <v>0.01372404270458429</v>
+        <v>0.05280650168125092</v>
       </c>
       <c r="D78">
-        <v>-0.05937589520030109</v>
+        <v>0.005634285865798241</v>
       </c>
       <c r="E78">
-        <v>-0.003574017184549725</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02256766857632253</v>
+      </c>
+      <c r="F78">
+        <v>0.03438912999070991</v>
+      </c>
+      <c r="G78">
+        <v>0.08719286113084668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01680635949801369</v>
+        <v>-0.05263448069081018</v>
       </c>
       <c r="C80">
-        <v>0.06385819574375039</v>
+        <v>0.0742048868279281</v>
       </c>
       <c r="D80">
-        <v>-0.1955580449711922</v>
+        <v>0.009741732104029233</v>
       </c>
       <c r="E80">
-        <v>-0.7251867640886236</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03741893693059954</v>
+      </c>
+      <c r="F80">
+        <v>0.01780187502456418</v>
+      </c>
+      <c r="G80">
+        <v>0.4701026713256243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01176609145652572</v>
+        <v>-0.1405609894549961</v>
       </c>
       <c r="C81">
-        <v>0.09400137739190709</v>
+        <v>0.09653498118474269</v>
       </c>
       <c r="D81">
-        <v>-0.169835761945199</v>
+        <v>-0.01573481265571445</v>
       </c>
       <c r="E81">
-        <v>-0.01522626799846574</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03557925448516791</v>
+      </c>
+      <c r="F81">
+        <v>-0.134168094797008</v>
+      </c>
+      <c r="G81">
+        <v>0.01653371330050201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1253239172792409</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07201795436036151</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00819310908993312</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08938822332322666</v>
+      </c>
+      <c r="F82">
+        <v>-0.03642822672243044</v>
+      </c>
+      <c r="G82">
+        <v>0.03860057348566757</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008648668258030316</v>
+        <v>-0.03617103437517734</v>
       </c>
       <c r="C83">
-        <v>0.02247346391557564</v>
+        <v>0.0292696351090787</v>
       </c>
       <c r="D83">
-        <v>-0.03719065741656154</v>
+        <v>0.005690929763419731</v>
       </c>
       <c r="E83">
-        <v>0.001416914530723549</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02761866493943423</v>
+      </c>
+      <c r="F83">
+        <v>0.03196945814720773</v>
+      </c>
+      <c r="G83">
+        <v>0.05653297561496789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02364711429470827</v>
+        <v>-0.2155537981799374</v>
       </c>
       <c r="C85">
-        <v>0.1231605968287796</v>
+        <v>0.1447803100824861</v>
       </c>
       <c r="D85">
-        <v>-0.262572714142525</v>
+        <v>-0.01917299965812741</v>
       </c>
       <c r="E85">
-        <v>5.402161225373583e-05</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1006747754892596</v>
+      </c>
+      <c r="F85">
+        <v>-0.1378380977003128</v>
+      </c>
+      <c r="G85">
+        <v>-0.1174547621453296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0100759467124817</v>
+        <v>-0.01383611406730627</v>
       </c>
       <c r="C86">
-        <v>0.02366973727877704</v>
+        <v>0.02897512927456837</v>
       </c>
       <c r="D86">
-        <v>-0.05351503476761574</v>
+        <v>0.01258923036205957</v>
       </c>
       <c r="E86">
-        <v>0.03280674939270302</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04765860343106577</v>
+      </c>
+      <c r="F86">
+        <v>0.02946519415855787</v>
+      </c>
+      <c r="G86">
+        <v>0.1761434952033217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00844274934203227</v>
+        <v>-0.02316799871084704</v>
       </c>
       <c r="C87">
-        <v>0.0007989054988966246</v>
+        <v>0.02397069031832514</v>
       </c>
       <c r="D87">
-        <v>-0.05994680911840367</v>
+        <v>0.01221827625298448</v>
       </c>
       <c r="E87">
-        <v>0.005550862671971216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08659377189730851</v>
+      </c>
+      <c r="F87">
+        <v>0.01403493623292994</v>
+      </c>
+      <c r="G87">
+        <v>0.1124546455302684</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02908316558158254</v>
+        <v>-0.09198390293631727</v>
       </c>
       <c r="C88">
-        <v>0.02946372752219617</v>
+        <v>0.06611051376957448</v>
       </c>
       <c r="D88">
-        <v>-0.05295012259405847</v>
+        <v>0.0224305661729134</v>
       </c>
       <c r="E88">
-        <v>-0.0007776517133486578</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.008663059432447912</v>
+      </c>
+      <c r="F88">
+        <v>-0.01614600319803684</v>
+      </c>
+      <c r="G88">
+        <v>0.07580908502714422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.09704372671517247</v>
+        <v>-0.2346326106655393</v>
       </c>
       <c r="C89">
-        <v>0.39555626130763</v>
+        <v>-0.3679258782828028</v>
       </c>
       <c r="D89">
-        <v>0.2027947755638179</v>
+        <v>0.0005939658129221986</v>
       </c>
       <c r="E89">
-        <v>-0.01747204734622957</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01266080196809189</v>
+      </c>
+      <c r="F89">
+        <v>-0.02688634803982136</v>
+      </c>
+      <c r="G89">
+        <v>0.06841122356405621</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07405855237478354</v>
+        <v>-0.207297763466721</v>
       </c>
       <c r="C90">
-        <v>0.3089510643455296</v>
+        <v>-0.3198154427550949</v>
       </c>
       <c r="D90">
-        <v>0.1881497953751367</v>
+        <v>-0.00394667263095449</v>
       </c>
       <c r="E90">
-        <v>0.02386006393336296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.00264996163542451</v>
+      </c>
+      <c r="F90">
+        <v>-0.05163032616771356</v>
+      </c>
+      <c r="G90">
+        <v>0.02953372831010209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01421731730431353</v>
+        <v>-0.1891295899823642</v>
       </c>
       <c r="C91">
-        <v>0.1374182367189825</v>
+        <v>0.1387481033503798</v>
       </c>
       <c r="D91">
-        <v>-0.214987798541987</v>
+        <v>-0.02342029548410988</v>
       </c>
       <c r="E91">
-        <v>-0.01343879466981753</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06523522604035444</v>
+      </c>
+      <c r="F91">
+        <v>-0.1495605515582325</v>
+      </c>
+      <c r="G91">
+        <v>0.007717777737263173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.04223228033268064</v>
+        <v>-0.2006405785945712</v>
       </c>
       <c r="C92">
-        <v>0.3218849496282085</v>
+        <v>-0.2576153817131283</v>
       </c>
       <c r="D92">
-        <v>0.08638762554847443</v>
+        <v>-0.0382922631861214</v>
       </c>
       <c r="E92">
-        <v>0.0253344534717092</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03028998252064245</v>
+      </c>
+      <c r="F92">
+        <v>-0.06296429178034488</v>
+      </c>
+      <c r="G92">
+        <v>0.1275201774281487</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.07238089019148078</v>
+        <v>-0.2315224110716144</v>
       </c>
       <c r="C93">
-        <v>0.3287150706966374</v>
+        <v>-0.3153281606842834</v>
       </c>
       <c r="D93">
-        <v>0.1648794404538595</v>
+        <v>-0.0106333470989862</v>
       </c>
       <c r="E93">
-        <v>0.04125608769753561</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.0092196036696955</v>
+      </c>
+      <c r="F93">
+        <v>-0.03751466311652982</v>
+      </c>
+      <c r="G93">
+        <v>0.03593451395818054</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03781718788469909</v>
+        <v>-0.317198646153195</v>
       </c>
       <c r="C94">
-        <v>0.1564166624561972</v>
+        <v>0.1744161039560657</v>
       </c>
       <c r="D94">
-        <v>-0.2280114235965392</v>
+        <v>-0.01863476958484789</v>
       </c>
       <c r="E94">
-        <v>0.01180942555781188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1769025867313406</v>
+      </c>
+      <c r="F94">
+        <v>-0.4687424300926324</v>
+      </c>
+      <c r="G94">
+        <v>-0.3388901774915226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002372286468817945</v>
+        <v>-0.09973045172844343</v>
       </c>
       <c r="C95">
-        <v>0.0343399572464223</v>
+        <v>0.08544655094096879</v>
       </c>
       <c r="D95">
-        <v>-0.1111205080840264</v>
+        <v>-0.009834544104344103</v>
       </c>
       <c r="E95">
-        <v>0.1274135142779524</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07217951970244224</v>
+      </c>
+      <c r="F95">
+        <v>0.20477861320956</v>
+      </c>
+      <c r="G95">
+        <v>-0.0528934308382479</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.02100035686049769</v>
+        <v>-0.1970239347614411</v>
       </c>
       <c r="C98">
-        <v>0.1529737770144342</v>
+        <v>0.04767710779370832</v>
       </c>
       <c r="D98">
-        <v>-0.1558911312962482</v>
+        <v>-0.0123105445868961</v>
       </c>
       <c r="E98">
-        <v>0.03044792448901273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.07025628593090041</v>
+      </c>
+      <c r="F98">
+        <v>0.2412669374875834</v>
+      </c>
+      <c r="G98">
+        <v>-0.01351053912982915</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009325437839991582</v>
+        <v>-0.009353607519182202</v>
       </c>
       <c r="C101">
-        <v>0.01613276342537126</v>
+        <v>0.02258533267233157</v>
       </c>
       <c r="D101">
-        <v>-0.0165022946975132</v>
+        <v>0.00862464009438124</v>
       </c>
       <c r="E101">
-        <v>-0.005466944262032949</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0008306726809052676</v>
+      </c>
+      <c r="F101">
+        <v>-0.01879307435792659</v>
+      </c>
+      <c r="G101">
+        <v>0.08722992993535869</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02033047554722042</v>
+        <v>-0.1174532950435851</v>
       </c>
       <c r="C102">
-        <v>0.06463032991128359</v>
+        <v>0.08381765729733337</v>
       </c>
       <c r="D102">
-        <v>-0.1221724155733678</v>
+        <v>0.0004905739042282793</v>
       </c>
       <c r="E102">
-        <v>-0.001471939761263048</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03538610015920595</v>
+      </c>
+      <c r="F102">
+        <v>-0.04007466521995101</v>
+      </c>
+      <c r="G102">
+        <v>-0.003827085618288121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001996585289053851</v>
+        <v>-0.003149547854183192</v>
       </c>
       <c r="C103">
-        <v>0.01030595568797489</v>
+        <v>0.002468191241716522</v>
       </c>
       <c r="D103">
-        <v>-0.01663770600782235</v>
+        <v>-5.312574313366302e-05</v>
       </c>
       <c r="E103">
-        <v>-0.01525305908943537</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001006887928113394</v>
+      </c>
+      <c r="F103">
+        <v>-0.007679071666254987</v>
+      </c>
+      <c r="G103">
+        <v>0.01392541012964781</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.968417970967456</v>
+        <v>-0.02074159569107005</v>
       </c>
       <c r="C104">
-        <v>-0.2080919099458284</v>
+        <v>-0.02882506820221502</v>
       </c>
       <c r="D104">
-        <v>0.0248895419926468</v>
+        <v>0.9874749547196109</v>
       </c>
       <c r="E104">
-        <v>-0.03861241784816607</v>
+        <v>-0.04982361399633299</v>
+      </c>
+      <c r="F104">
+        <v>-0.03861440960822929</v>
+      </c>
+      <c r="G104">
+        <v>-0.02991756774694566</v>
       </c>
     </row>
   </sheetData>
